--- a/Project_1/closest_pairs_analysis.xlsx
+++ b/Project_1/closest_pairs_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\algorithms\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD26963A-662E-46C1-9A0E-AD2B9AB8ED86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E2DB00-0D8F-4DB4-8B85-BD964691ACBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5983BC19-4747-4D1D-A3C0-3BBBAC7DFC7A}"/>
+    <workbookView xWindow="3495" yWindow="1320" windowWidth="21600" windowHeight="12630" xr2:uid="{5983BC19-4747-4D1D-A3C0-3BBBAC7DFC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,15 +80,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -221,7 +333,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -320,7 +432,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:f>Sheet1!$D$5:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -429,7 +541,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -464,7 +576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -563,7 +675,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:f>Sheet1!$E$5:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -672,7 +784,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -707,7 +819,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -806,7 +918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:f>Sheet1!$F$5:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -915,7 +1027,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -950,7 +1062,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1049,7 +1161,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$31</c:f>
+              <c:f>Sheet1!$G$5:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1158,7 +1270,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1193,7 +1305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1292,7 +1404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$31</c:f>
+              <c:f>Sheet1!$H$5:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2284,16 +2396,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>322490</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>189140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2618,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F648B5E9-123B-439F-9C17-AE6CF66A5235}">
-  <dimension ref="C1:I31"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,776 +2745,833 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <f>((C2^2 - C2)/2)</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2^2</f>
-        <v>25</v>
-      </c>
-      <c r="F2" s="1">
-        <f>ROUNDUP((C2^2 - 2*C2)/4, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <f>ROUNDUP(C2*LOG(C2),0)</f>
-        <v>4</v>
-      </c>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>((C5^2 - C5)/2)</f>
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D31" si="0">((C3^2 - C3)/2)</f>
+      <c r="E5" s="2">
+        <f>C5^2</f>
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <f>ROUNDUP((C5^2 - 2*C5)/4, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <f>ROUNDUP(C5*LOG(C5),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D34" si="0">((C6^2 - C6)/2)</f>
         <v>45</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E31" si="1">C3^2</f>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E34" si="1">C6^2</f>
         <v>100</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F31" si="2">ROUNDUP((C3^2 - 2*C3)/4, 0)</f>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F34" si="2">ROUNDUP((C6^2 - 2*C6)/4, 0)</f>
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G6" s="3">
         <v>24</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H31" si="3">ROUNDUP(C3*LOG(C3),0)</f>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H34" si="3">ROUNDUP(C6*LOG(C6),0)</f>
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G4">
+      <c r="G7" s="3">
         <v>56</v>
       </c>
-      <c r="H4">
+      <c r="H7" s="3">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I7" s="8"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="G5">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="H8" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I8" s="8"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="G6">
+      <c r="G9" s="3">
         <v>159</v>
       </c>
-      <c r="H6">
+      <c r="H9" s="3">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I9" s="8"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="G7">
+      <c r="G10" s="3">
         <v>214</v>
       </c>
-      <c r="H7">
+      <c r="H10" s="3">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I10" s="8"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2">
         <v>35</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="G8">
+      <c r="G11" s="3">
         <v>307</v>
       </c>
-      <c r="H8">
+      <c r="H11" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I11" s="8"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="2">
         <v>40</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="G9">
+      <c r="G12" s="3">
         <v>381</v>
       </c>
-      <c r="H9">
+      <c r="H12" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I12" s="8"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="2">
         <v>45</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
-      <c r="G10">
+      <c r="G13" s="3">
         <v>494</v>
       </c>
-      <c r="H10">
+      <c r="H13" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I13" s="8"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2">
         <v>50</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G11">
+      <c r="G14" s="3">
         <v>606</v>
       </c>
-      <c r="H11">
+      <c r="H14" s="3">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I14" s="8"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="2">
         <v>55</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>1485</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>729</v>
       </c>
-      <c r="G12">
+      <c r="G15" s="3">
         <v>772</v>
       </c>
-      <c r="H12">
+      <c r="H15" s="3">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I15" s="8"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2">
         <v>60</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>870</v>
       </c>
-      <c r="G13">
+      <c r="G16" s="3">
         <v>885</v>
       </c>
-      <c r="H13">
+      <c r="H16" s="3">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I16" s="8"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2">
         <v>65</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>4225</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="G14">
+      <c r="G17" s="3">
         <v>1069</v>
       </c>
-      <c r="H14">
+      <c r="H17" s="3">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I17" s="8"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="2">
         <v>70</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>2415</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>1190</v>
       </c>
-      <c r="G15">
+      <c r="G18" s="3">
         <v>1218</v>
       </c>
-      <c r="H15">
+      <c r="H18" s="3">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I18" s="8"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="2">
         <v>75</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>2775</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>5625</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
         <v>1369</v>
       </c>
-      <c r="G16">
+      <c r="G19" s="3">
         <v>1390</v>
       </c>
-      <c r="H16">
+      <c r="H19" s="3">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I19" s="8"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="2">
         <v>80</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>3160</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F20" s="2">
         <f t="shared" si="2"/>
         <v>1560</v>
       </c>
-      <c r="G17">
+      <c r="G20" s="3">
         <v>1570</v>
       </c>
-      <c r="H17">
+      <c r="H20" s="3">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I20" s="8"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="2">
         <v>85</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>3570</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>7225</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>1764</v>
       </c>
-      <c r="G18">
+      <c r="G21" s="3">
         <v>1771</v>
       </c>
-      <c r="H18">
+      <c r="H21" s="3">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I21" s="8"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="2">
         <v>90</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>4005</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F22" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="G19">
+      <c r="G22" s="3">
         <v>2002</v>
       </c>
-      <c r="H19">
+      <c r="H22" s="3">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I22" s="8"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="2">
         <v>95</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>4465</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>9025</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
         <v>2209</v>
       </c>
-      <c r="G20">
+      <c r="G23" s="3">
         <v>2230</v>
       </c>
-      <c r="H20">
+      <c r="H23" s="3">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I23" s="8"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>4950</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F24" s="2">
         <f t="shared" si="2"/>
         <v>2450</v>
       </c>
-      <c r="G21">
+      <c r="G24" s="3">
         <v>2502</v>
       </c>
-      <c r="H21">
+      <c r="H24" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I24" s="8"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="2">
         <v>105</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>5460</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>11025</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F25" s="2">
         <f t="shared" si="2"/>
         <v>2704</v>
       </c>
-      <c r="G22">
+      <c r="G25" s="3">
         <v>2735</v>
       </c>
-      <c r="H22">
+      <c r="H25" s="3">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I25" s="8"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="2">
         <v>110</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>5995</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>12100</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F26" s="2">
         <f t="shared" si="2"/>
         <v>2970</v>
       </c>
-      <c r="G23">
+      <c r="G26" s="3">
         <v>3020</v>
       </c>
-      <c r="H23">
+      <c r="H26" s="3">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I26" s="8"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="2">
         <v>115</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>6555</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>13225</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F27" s="2">
         <f t="shared" si="2"/>
         <v>3249</v>
       </c>
-      <c r="G24">
+      <c r="G27" s="3">
         <v>3434</v>
       </c>
-      <c r="H24">
+      <c r="H27" s="3">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I27" s="8"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="2">
         <v>120</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>7140</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F28" s="2">
         <f t="shared" si="2"/>
         <v>3540</v>
       </c>
-      <c r="G25">
+      <c r="G28" s="3">
         <v>3646</v>
       </c>
-      <c r="H25">
+      <c r="H28" s="3">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I28" s="8"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="2">
         <v>125</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>7750</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>15625</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F29" s="2">
         <f t="shared" si="2"/>
         <v>3844</v>
       </c>
-      <c r="G26">
+      <c r="G29" s="3">
         <v>3922</v>
       </c>
-      <c r="H26">
+      <c r="H29" s="3">
         <f t="shared" si="3"/>
         <v>263</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I29" s="8"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="2">
         <v>130</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>8385</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F30" s="2">
         <f t="shared" si="2"/>
         <v>4160</v>
       </c>
-      <c r="G27">
+      <c r="G30" s="3">
         <v>4179</v>
       </c>
-      <c r="H27">
+      <c r="H30" s="3">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I30" s="8"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="2">
         <v>135</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>9045</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>18225</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F31" s="2">
         <f t="shared" si="2"/>
         <v>4489</v>
       </c>
-      <c r="G28">
+      <c r="G31" s="3">
         <v>4520</v>
       </c>
-      <c r="H28">
+      <c r="H31" s="3">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I31" s="8"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="2">
         <v>140</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>9730</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>19600</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F32" s="2">
         <f t="shared" si="2"/>
         <v>4830</v>
       </c>
-      <c r="G29">
+      <c r="G32" s="3">
         <v>4844</v>
       </c>
-      <c r="H29">
+      <c r="H32" s="3">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I32" s="9"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="2">
         <v>145</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>10440</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>21025</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F33" s="2">
         <f t="shared" si="2"/>
         <v>5184</v>
       </c>
-      <c r="G30">
+      <c r="G33" s="3">
         <v>5215</v>
       </c>
-      <c r="H30">
+      <c r="H33" s="3">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I33" s="9"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="2">
         <v>150</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>11175</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F34" s="2">
         <f t="shared" si="2"/>
         <v>5550</v>
       </c>
-      <c r="G31">
+      <c r="G34" s="3">
         <v>5565</v>
       </c>
-      <c r="H31">
+      <c r="H34" s="3">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
